--- a/MultiIndexCase.xlsx
+++ b/MultiIndexCase.xlsx
@@ -34,10 +34,16 @@
     <t>Weds</t>
   </si>
   <si>
+    <t>Post-Noon</t>
+  </si>
+  <si>
     <t>Pre-Noon</t>
   </si>
   <si>
-    <t>Post-Noon</t>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>Midnight Snack</t>
   </si>
   <si>
     <t>Breakfast</t>
@@ -46,10 +52,10 @@
     <t>Lunch</t>
   </si>
   <si>
-    <t>Dinner</t>
-  </si>
-  <si>
-    <t>Midnight Snack</t>
+    <t>Curry</t>
+  </si>
+  <si>
+    <t>Shmores</t>
   </si>
   <si>
     <t>Toast</t>
@@ -58,16 +64,10 @@
     <t>Soup</t>
   </si>
   <si>
-    <t>Curry</t>
-  </si>
-  <si>
-    <t>Shmores</t>
+    <t>Chocolate</t>
   </si>
   <si>
     <t>Hotpot</t>
-  </si>
-  <si>
-    <t>Chocolate</t>
   </si>
   <si>
     <t>Something Different!</t>
@@ -495,10 +495,10 @@
         <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="9:14">
@@ -533,10 +533,10 @@
         <v>17</v>
       </c>
       <c r="M11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" t="s">
         <v>15</v>
-      </c>
-      <c r="N11" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/MultiIndexCase.xlsx
+++ b/MultiIndexCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Early Week</t>
   </si>
@@ -25,12 +25,12 @@
     <t>Mon</t>
   </si>
   <si>
+    <t>Tues</t>
+  </si>
+  <si>
     <t>Thur</t>
   </si>
   <si>
-    <t>Tues</t>
-  </si>
-  <si>
     <t>Weds</t>
   </si>
   <si>
@@ -64,16 +64,40 @@
     <t>Soup</t>
   </si>
   <si>
+    <t>Stew</t>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <t>Bagel</t>
+  </si>
+  <si>
+    <t>Something Different!</t>
+  </si>
+  <si>
+    <t>Gnocchi</t>
+  </si>
+  <si>
     <t>Chocolate</t>
   </si>
   <si>
+    <t>Croissant</t>
+  </si>
+  <si>
     <t>Hotpot</t>
   </si>
   <si>
-    <t>Something Different!</t>
+    <t>Pasta</t>
   </si>
   <si>
     <t>Biscuits</t>
+  </si>
+  <si>
+    <t>Cereal</t>
+  </si>
+  <si>
+    <t>Rice</t>
   </si>
 </sst>
 </file>
@@ -431,120 +455,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I5:N11"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="5" spans="9:14">
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="F1" s="1"/>
     </row>
-    <row r="6" spans="9:14">
-      <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
+    <row r="2" spans="1:6">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="9:14">
-      <c r="I8" s="1" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K8" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="L8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" t="s">
-        <v>12</v>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="9" spans="9:14">
-      <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K9" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="L9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="9:14">
-      <c r="I10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="9:14">
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" t="s">
-        <v>15</v>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
